--- a/Config/Excel/LevelInfoData.xlsx
+++ b/Config/Excel/LevelInfoData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\TheOnlyStreetOfSruvival\TheOnlyStreetOfSruvival\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\the-janitor-simulator\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C2BDB9-9A22-4F28-91EA-2C757483CB76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42296ECA-B9C4-4F15-B2A9-2CCA0F39D150}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="1545" windowWidth="25110" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2985" windowWidth="25110" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelInfo" sheetId="1" r:id="rId1"/>
@@ -100,10 +100,6 @@
     <t>Barea</t>
   </si>
   <si>
-    <t xml:space="preserve">Mike finaly returned the capital of the city, the most important battle in this war are hapenning. Get to the other side of the city, to the direction where reinforcements will come, leave the city before it completely turned in to battle field of iron and bombs!
-</t>
-  </si>
-  <si>
     <t>Newspaper03</t>
   </si>
   <si>
@@ -119,6 +115,10 @@
   </si>
   <si>
     <t>UnLockLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike finaly returned the capital of the city, the most important battle in this war are hapenning. Get to the other side of the city, to the direction where reinforcements will come, leave the city before it completely turned in to battle field of iron and bombs!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,6 +137,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -453,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -513,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
@@ -539,7 +540,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -620,19 +621,19 @@
         <v>10003</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>300</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">

--- a/Config/Excel/LevelInfoData.xlsx
+++ b/Config/Excel/LevelInfoData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\the-janitor-simulator\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42296ECA-B9C4-4F15-B2A9-2CCA0F39D150}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4FAD66-1219-44FC-8742-7903F08CF18B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2985" windowWidth="25110" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelInfo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>关卡ID</t>
   </si>
@@ -37,9 +37,6 @@
     <t>通关限定时间（秒）</t>
   </si>
   <si>
-    <t>主界面的报纸名称</t>
-  </si>
-  <si>
     <t>通关时的结束语</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>TimeLimit</t>
   </si>
   <si>
-    <t>Newspaper</t>
-  </si>
-  <si>
     <t>ResultWord</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>The enemy from the east declared war to the republic few days ago. Although the government promised that Combo city would not be occupied, the city meets the invaders soon after the rout of the troops at the front line.</t>
   </si>
   <si>
-    <t>Newspaper01</t>
-  </si>
-  <si>
     <t>Mike gets on the train to Newaustin succsefuly. It will be much more easier to get back to Barea to find his family---- if Newaustin is still resisting.</t>
   </si>
   <si>
@@ -91,18 +82,12 @@
     <t>Is was lucky for Mike to escape from Combo. However, enemies are now attacking Newaustin, the railway terminal of the east republic. Mike needs to get to another train station before republic lost it.</t>
   </si>
   <si>
-    <t>Newspaper02</t>
-  </si>
-  <si>
     <t>That was close! The sound of the train gave Mike much more power and confidence. However, Mike and other passengers on the train are not the only one who speeding along to Barea,</t>
   </si>
   <si>
     <t>Barea</t>
   </si>
   <si>
-    <t>Newspaper03</t>
-  </si>
-  <si>
     <t>After Mike leave the battle field, he went to the evacuation zone to find his wife and daughter.</t>
   </si>
   <si>
@@ -119,6 +104,50 @@
   </si>
   <si>
     <t>Mike finaly returned the capital of the city, the most important battle in this war are hapenning. Get to the other side of the city, to the direction where reinforcements will come, leave the city before it completely turned in to battle field of iron and bombs!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡封面路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelScreenShots/Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelScreenShots/Level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelScreenShots/Level3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenShot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGround</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdsads</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,65 +514,65 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -563,25 +592,25 @@
         <v>10001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10001</v>
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>300</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -589,25 +618,25 @@
         <v>10002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10002</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>300</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="122.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -615,25 +644,25 @@
         <v>10003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10003</v>
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>300</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">

--- a/Config/Excel/LevelInfoData.xlsx
+++ b/Config/Excel/LevelInfoData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\the-janitor-simulator\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4FAD66-1219-44FC-8742-7903F08CF18B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD41A57-8AAE-44C1-A716-EDD165D55176}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="900" windowWidth="25110" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelInfo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>关卡ID</t>
   </si>
@@ -37,9 +37,6 @@
     <t>通关限定时间（秒）</t>
   </si>
   <si>
-    <t>通关时的结束语</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>TimeLimit</t>
   </si>
   <si>
-    <t>ResultWord</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -67,88 +61,94 @@
     <t>float</t>
   </si>
   <si>
-    <t>Combo</t>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnLockLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike finaly returned the capital of the city, the most important battle in this war are hapenning. Get to the other side of the city, to the direction where reinforcements will come, leave the city before it completely turned in to battle field of iron and bombs!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡封面路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelScreenShots/Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelScreenShots/Level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelScreenShots/Level3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenShot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGround</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdsads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The enemy from the east declared war to the republic few days ago. Although the government promised that Combo city would not be occupied, the city meets the invaders soon after the rout of the troops at the front line.</t>
-  </si>
-  <si>
-    <t>Mike gets on the train to Newaustin succsefuly. It will be much more easier to get back to Barea to find his family---- if Newaustin is still resisting.</t>
-  </si>
-  <si>
-    <t>Newaustin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Is was lucky for Mike to escape from Combo. However, enemies are now attacking Newaustin, the railway terminal of the east republic. Mike needs to get to another train station before republic lost it.</t>
-  </si>
-  <si>
-    <t>That was close! The sound of the train gave Mike much more power and confidence. However, Mike and other passengers on the train are not the only one who speeding along to Barea,</t>
-  </si>
-  <si>
-    <t>Barea</t>
-  </si>
-  <si>
-    <t>After Mike leave the battle field, he went to the evacuation zone to find his wife and daughter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得不同星级的评价所需要的剩余时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeLeftForEvaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解锁关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnLockLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike finaly returned the capital of the city, the most important battle in this war are hapenning. Get to the other side of the city, to the direction where reinforcements will come, leave the city before it completely turned in to battle field of iron and bombs!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡封面路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelScreenShots/Level1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelScreenShots/Level2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelScreenShots/Level3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenShot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerGround</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdsads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>100,60,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,60,21</t>
+  </si>
+  <si>
+    <t>100,60,22</t>
   </si>
 </sst>
 </file>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -494,7 +494,7 @@
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="29.125" customWidth="1"/>
     <col min="6" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -514,65 +514,65 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -592,25 +592,25 @@
         <v>10001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>300</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>17</v>
+      <c r="G6" s="1">
+        <v>10002</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -618,25 +618,25 @@
         <v>10002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>300</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="122.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -644,25 +644,25 @@
         <v>10003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>300</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">

--- a/Config/Excel/LevelInfoData.xlsx
+++ b/Config/Excel/LevelInfoData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\the-janitor-simulator\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blcode\the-janitor-simulator\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD41A57-8AAE-44C1-A716-EDD165D55176}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9B1EA7-B2E9-447B-8D9A-34E1C01F792E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="900" windowWidth="25110" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelInfo" sheetId="1" r:id="rId1"/>
@@ -109,18 +109,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayerGround</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sdsads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The enemy from the east declared war to the republic few days ago. Although the government promised that Combo city would not be occupied, the city meets the invaders soon after the rout of the troops at the front line.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,17 +137,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100,60,21</t>
-  </si>
-  <si>
-    <t>100,60,22</t>
+    <t>HallWay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,50,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,70,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +167,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -193,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +215,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,21 +496,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="3" width="34.375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
-    <col min="6" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="7" width="28.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,10 +533,10 @@
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -546,10 +559,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -572,36 +585,36 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -610,24 +623,24 @@
         <v>10002</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10002</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
@@ -635,16 +648,16 @@
       <c r="G7" s="1">
         <v>10003</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="122.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="122.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -653,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -661,64 +674,64 @@
       <c r="G8" s="1">
         <v>10001</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Excel/LevelInfoData.xlsx
+++ b/Config/Excel/LevelInfoData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blcode\the-janitor-simulator\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9B1EA7-B2E9-447B-8D9A-34E1C01F792E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B803A7-A300-44DE-8D01-6D8BFAB010FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mike finaly returned the capital of the city, the most important battle in this war are hapenning. Get to the other side of the city, to the direction where reinforcements will come, leave the city before it completely turned in to battle field of iron and bombs!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡封面路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,18 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PlayerGround</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The enemy from the east declared war to the republic few days ago. Although the government promised that Combo city would not be occupied, the city meets the invaders soon after the rout of the troops at the front line.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is was lucky for Mike to escape from Combo. However, enemies are now attacking Newaustin, the railway terminal of the east republic. Mike needs to get to another train station before republic lost it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得不同星级的评价所需要的剩余时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,11 +129,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80,50,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100,70,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are a cleaner of a school. One day you enter the school and you found that there is a lot of rubbish on the playground. At the same time, you have a time limit because the student are going to enter the school and begin their classes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now you walk into the building and you find that there is still a lot of garbage in the hallway and you have to clean it or you will be fired by the school.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The final place you are going to is the classroom and you have to clean all of them in a short time or the students will not have a good environment of studying.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,60,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayGround</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,14 +210,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -527,13 +527,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -553,13 +553,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -604,51 +604,51 @@
       <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1">
         <v>10002</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10002</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
         <v>10003</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -656,26 +656,26 @@
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E8">
         <v>250</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1">
         <v>10001</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>35</v>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">

--- a/Config/Excel/LevelInfoData.xlsx
+++ b/Config/Excel/LevelInfoData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blcode\the-janitor-simulator\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\the-janitor-simulator\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B803A7-A300-44DE-8D01-6D8BFAB010FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6936F74-A183-4AAE-B548-68C522A55001}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="285" windowWidth="28800" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelInfo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>关卡ID</t>
   </si>
@@ -150,6 +150,22 @@
   </si>
   <si>
     <t>PlayGround</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultWord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Job!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,23 +510,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="3" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="3" width="34.375" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="7" width="28.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="7" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="31.875" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +552,11 @@
       <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -561,8 +581,11 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -587,20 +610,23 @@
       <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10001</v>
       </c>
@@ -625,8 +651,11 @@
       <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10002</v>
       </c>
@@ -651,8 +680,11 @@
       <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="122.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="122.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10003</v>
       </c>
@@ -677,56 +709,59 @@
       <c r="H8" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
   </sheetData>
